--- a/biology/Botanique/Amélanchier_à_feuilles_ovales/Amélanchier_à_feuilles_ovales.xlsx
+++ b/biology/Botanique/Amélanchier_à_feuilles_ovales/Amélanchier_à_feuilles_ovales.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Am%C3%A9lanchier_%C3%A0_feuilles_ovales</t>
+          <t>Amélanchier_à_feuilles_ovales</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Amelanchier ovalis
 L'Amélanchier à feuilles ovales, Amelanchier ovalis, est une espèce d'e plantes à fleurs de la famille des Rosacées appartenant au genre Amelanchier.
@@ -496,7 +508,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Am%C3%A9lanchier_%C3%A0_feuilles_ovales</t>
+          <t>Amélanchier_à_feuilles_ovales</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -514,11 +526,13 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">C'est un arbrisseau de 1 à 3 mètres de hauteur dont les  feuilles caduques sont ovales-arrondies (ovalis), et le revers blanc-duveteux.
-La floraison a lieu d'avril à mai[1]. Les fleurs sont blanches à 5 pétales, regroupées en petites grappes formant une corymbe.
-Les fruits sont globuleux, de couleur noire à bleue. Ce sont des piridions qui ressemblent à des baies. Appelés amélanches (nom féminin), ils sont sucrés et comestibles. Ces fruits peuvent se consommer frais ou séchés, en confiture ou dans des gâteaux[1].
+La floraison a lieu d'avril à mai. Les fleurs sont blanches à 5 pétales, regroupées en petites grappes formant une corymbe.
+Les fruits sont globuleux, de couleur noire à bleue. Ce sont des piridions qui ressemblent à des baies. Appelés amélanches (nom féminin), ils sont sucrés et comestibles. Ces fruits peuvent se consommer frais ou séchés, en confiture ou dans des gâteaux.
 			Détail des fleurs et feuilles.
 			Feuilles et fruits.
 </t>
@@ -531,7 +545,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Am%C3%A9lanchier_%C3%A0_feuilles_ovales</t>
+          <t>Amélanchier_à_feuilles_ovales</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -549,9 +563,11 @@
           <t>Habitats</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Dans les Pyrénées, l'espèce est présente aux étages collinéen à subalpin dans les escarpements rocheux et les bois clairs[1].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Dans les Pyrénées, l'espèce est présente aux étages collinéen à subalpin dans les escarpements rocheux et les bois clairs.
 </t>
         </is>
       </c>
@@ -562,7 +578,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Am%C3%A9lanchier_%C3%A0_feuilles_ovales</t>
+          <t>Amélanchier_à_feuilles_ovales</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -580,7 +596,9 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Dans le Midi de la France, il est fréquent en Haute Provence calcaire au-dessus de 500 m; dans le secteur des gorges du Verdon à proximité de Castellane ; mais aussi sur des massifs plus méridionaux tels que la Sainte-Baume. Il a été vu à 2 100 m dans les Hautes-Alpes dans l'Oisans, le cirque de Gioberney au fond du Valgaudemar. En France, on le rencontre au sud d'une ligne Lorraine - Pyrénées Atlantiques sur les coteaux calcaires et secs exposés au sud. Préférant les climats méditerranéen et continentaux, il est totalement absent des régions de l'Ouest.
 </t>
@@ -593,7 +611,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Am%C3%A9lanchier_%C3%A0_feuilles_ovales</t>
+          <t>Amélanchier_à_feuilles_ovales</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -611,7 +629,9 @@
           <t>Caractéristiques</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Organes reproducteurs :
 type d'inflorescence : corymbe
@@ -633,7 +653,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Am%C3%A9lanchier_%C3%A0_feuilles_ovales</t>
+          <t>Amélanchier_à_feuilles_ovales</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -651,7 +671,9 @@
           <t>Sous-espèces</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t xml:space="preserve">Amelanchier ovalis Medik. subsp. ovalis, des matorrals mésoméditerranéens, héliophiles, neutroclines.
 Amelanchier ovalis Medik. subsp. embergeri Favarger &amp; Stearn, des fourrés arbustifs médioeuropéens, montagnards, mésotrophiles, basophiles, xérophiles.
@@ -666,7 +688,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Am%C3%A9lanchier_%C3%A0_feuilles_ovales</t>
+          <t>Amélanchier_à_feuilles_ovales</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -684,9 +706,11 @@
           <t>Utilisations</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les baies fraîches et séchées sont comestibles et peuvent être utilisées pour préparer des confitures et des gâteaux[1].
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les baies fraîches et séchées sont comestibles et peuvent être utilisées pour préparer des confitures et des gâteaux.
 </t>
         </is>
       </c>
